--- a/BalanceSheet/JCI_bal.xlsx
+++ b/BalanceSheet/JCI_bal.xlsx
@@ -507,19 +507,19 @@
         <v>1994000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-98000000.0</v>
+        <v>1913000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>250000000.0</v>
+        <v>1773000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>56000000.0</v>
+        <v>1996000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-147000000.0</v>
+        <v>2030000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-114000000.0</v>
+        <v>1953000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1814000000.0</v>
@@ -1876,22 +1876,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>4234000000.0</v>
+        <v>3417000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>91000000.0</v>
+        <v>3210000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>14000000.0</v>
+        <v>3120000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-126000000.0</v>
+        <v>3057000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-107000000.0</v>
+        <v>3119000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-498000000.0</v>
+        <v>3336000000.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>3582000000.0</v>
@@ -2002,10 +2002,8 @@
           <t>Accrued Expenses</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>817000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>836000000.0</v>
@@ -2298,10 +2296,8 @@
           <t>Current Revenue (Deferred)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>1710000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1583000000.0</v>
@@ -2436,7 +2432,7 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>4062000000.0</v>
+        <v>2352000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>4486000000.0</v>
@@ -2995,10 +2991,8 @@
           <t>Pension and Post-Retirement Liabilities</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>831000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1110000000.0</v>
@@ -3173,7 +3167,7 @@
         <v>-59000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-389000000.0</v>
+        <v>-477000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>-87000000.0</v>
@@ -3521,7 +3515,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>6360000000.0</v>
+        <v>5529000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>5417000000.0</v>
@@ -3901,10 +3895,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>17034000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>16917000000.0</v>
@@ -4030,10 +4022,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>7000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>7000000.0</v>
@@ -4159,10 +4149,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>2215000000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2382000000.0</v>
@@ -4288,10 +4276,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>1148000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1146000000.0</v>
@@ -4424,7 +4410,7 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1059000000.0</v>
+        <v>18757000000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>17656000000.0</v>
@@ -4805,7 +4791,7 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>716700000.0</v>
+        <v>716715000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>720272000.0</v>
@@ -5058,10 +5044,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B37" s="0" t="n">
+        <v>5884000000.0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>7387000000.0</v>
@@ -5187,10 +5171,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B38" s="0" t="n">
+        <v>7767000000.0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>9231000000.0</v>
